--- a/UnityTypescriptFramework/ConfigData/trunk/Residents/Residents.xlsx
+++ b/UnityTypescriptFramework/ConfigData/trunk/Residents/Residents.xlsx
@@ -1,20 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ThisWangjian\town-survival\town-servival\ConfigData\trunk\Residents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F7D64-174F-4DEB-BBCF-3538C25965D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#residents#" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="内容说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>居民ID</t>
   </si>
@@ -69,41 +63,47 @@
     <t>models/cha/cha_0001/cha_0001.prefab</t>
   </si>
   <si>
+    <t>3|2</t>
+  </si>
+  <si>
+    <t>models/cha/cha_0001/cha_0002.prefab</t>
+  </si>
+  <si>
+    <t>4|2</t>
+  </si>
+  <si>
+    <t>喷火枪</t>
+  </si>
+  <si>
+    <t>models/cha/cha_0001/cha_0003.prefab</t>
+  </si>
+  <si>
     <t>1|2</t>
   </si>
   <si>
-    <t>models/cha/cha_0001/cha_0002.prefab</t>
-  </si>
-  <si>
-    <t>喷火枪</t>
-  </si>
-  <si>
-    <t>models/cha/cha_0001/cha_0003.prefab</t>
-  </si>
-  <si>
     <t>models/cha/cha_0001/cha_0004.prefab</t>
   </si>
   <si>
+    <t>5|2</t>
+  </si>
+  <si>
     <t>models/cha/cha_0001/cha_0005.prefab</t>
   </si>
   <si>
-    <t>3|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>说明：</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,29 +118,351 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,9 +470,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -161,21 +725,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -462,19 +1070,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -484,7 +1092,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +1115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -530,7 +1138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -541,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -553,7 +1161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -564,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
@@ -576,21 +1184,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
@@ -602,18 +1210,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -625,21 +1233,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -652,36 +1260,48 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/UnityTypescriptFramework/ConfigData/trunk/Residents/Residents.xlsx
+++ b/UnityTypescriptFramework/ConfigData/trunk/Residents/Residents.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="#residents#" sheetId="1" r:id="rId1"/>
     <sheet name="内容说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -98,12 +97,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,14 +117,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,64 +168,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,16 +230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,14 +240,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,26 +466,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +493,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,25 +536,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -562,9 +553,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,31 +581,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,108 +620,102 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,8 +1068,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1148,7 +1138,7 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1">
@@ -1171,7 +1161,7 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1">
@@ -1220,7 +1210,7 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1">
@@ -1271,7 +1261,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1287,21 +1277,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/UnityTypescriptFramework/ConfigData/trunk/Residents/Residents.xlsx
+++ b/UnityTypescriptFramework/ConfigData/trunk/Residents/Residents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="7335" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="#residents#" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <t>攻击力</t>
   </si>
   <si>
-    <t>#id:int</t>
+    <t>#id:string</t>
   </si>
   <si>
     <t>#url:string</t>
@@ -97,9 +97,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -117,6 +117,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -124,68 +132,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,14 +230,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -232,30 +239,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,8 +467,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,8 +476,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,17 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,9 +523,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,17 +561,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
